--- a/sharedata/exceldata/excel/all/J-节日活动.xlsx
+++ b/sharedata/exceldata/excel/all/J-节日活动.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1409">
   <si>
     <t>同一个活动组中不能有相同的小活动，不同活动组可以有相同的小活动，没有影响</t>
   </si>
@@ -4819,18 +4819,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：同一时间最多只有一个活动组在进行</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>节日庆典</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>单笔充值%s元</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -4839,7 +4831,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>2023-05-29 00:00:00</t>
+    <t>欢庆佳节</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -5655,13 +5647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5689,7 +5681,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="24"/>
       <c r="E1" s="26" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="32" t="s">
@@ -5905,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>1408</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>45</v>
@@ -5938,47 +5930,6 @@
         <v>51</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7153,7 +7104,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>152</v>
